--- a/cta策略/result/螺纹/MA_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/MA_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1218636657946872</v>
+        <v>0.08203921455048602</v>
       </c>
       <c r="D2">
-        <v>0.4188129931137758</v>
+        <v>0.1814701786820356</v>
       </c>
       <c r="E2">
-        <v>0.348526626282804</v>
+        <v>0.1875890151214149</v>
       </c>
       <c r="F2">
-        <v>0.625</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
   </sheetData>
